--- a/docs/traceability/Traceability_v4.1_completed_with_notes.xlsx
+++ b/docs/traceability/Traceability_v4.1_completed_with_notes.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mod/Desktop/HRPro/Architecture/docs/traceability/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7EBAA-F382-A44B-AAEC-09951F90E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -379,12 +385,18 @@
 - QA: Lint with eslint-plugin-jsx-a11y; visual contrast checks; Storybook a11y add-on; golden screenshots.
 - Release gate: block merge if a11y suite fails.</t>
   </si>
+  <si>
+    <t>UI Framework Mapping</t>
+  </si>
+  <si>
+    <t>UI v4.0 §6.3 (Components: Buttons) (docs/UI_Framework/UIFramework_v4.0_unified_numbered.md)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,13 +459,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +511,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -525,6 +545,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -559,9 +580,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -734,14 +756,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="83" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,8 +799,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -799,7 +829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -824,8 +854,11 @@
       <c r="H3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -851,7 +884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -877,7 +910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -903,7 +936,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -929,7 +962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -955,7 +988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -981,7 +1014,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1040,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1066,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1095,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1147,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1163,7 +1196,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
